--- a/app/信息登记表.xlsx
+++ b/app/信息登记表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>有间金融-人事</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -154,10 +154,6 @@
       </rPr>
       <t>pp@qihuofa.com</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abc1234567</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -203,31 +199,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>审核通过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abc123567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abc123567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abc123567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abc123567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abc123567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abc123567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>app@qihuofa.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>审核通过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>app@qihuofa.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abc1234567</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abc1234567</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abc1234567</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abc1234567</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abc1234567</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -339,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -350,9 +362,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -377,14 +386,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -694,7 +703,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -729,14 +738,14 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -763,162 +772,172 @@
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>32</v>
+      <c r="E3" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="4">
         <v>13538270230</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
+      <c r="E5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="4">
         <v>13538270230</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>41</v>
+      <c r="E7" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
@@ -927,246 +946,256 @@
       <c r="B8" s="4">
         <v>360</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>41</v>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>13538270230</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>41</v>
+      <c r="E10" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>13538270230</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>43</v>
+      <c r="E12" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/app/信息登记表.xlsx
+++ b/app/信息登记表.xlsx
@@ -227,10 +227,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>审核中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>app@qihuofa.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -240,6 +236,10 @@
   </si>
   <si>
     <t>app@qihuofa.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核通过</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -703,7 +703,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -888,7 +888,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>40</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="9"/>
@@ -1040,14 +1040,14 @@
         <v>27</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="9"/>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="9"/>
